--- a/nop-ooxml/nop-ooxml-xlsx/src/main/resources/_vfs/nop/ooxml/templates/simple-data.xpt.xlsx
+++ b/nop-ooxml/nop-ooxml-xlsx/src/main/resources/_vfs/nop/ooxml/templates/simple-data.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-ooxml\nop-ooxml-xlsx\src\main\resources\_vfs\nop\ooxml\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C95A3-4CC0-42B0-8C9A-92AA2395D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A61904-1C11-4E90-81C8-830089183E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,13 +80,71 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -95,11 +153,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01038A2A-F670-441A-81C7-F20D861C61AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,12 +494,18 @@
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nop-ooxml/nop-ooxml-xlsx/src/main/resources/_vfs/nop/ooxml/templates/simple-data.xpt.xlsx
+++ b/nop-ooxml/nop-ooxml-xlsx/src/main/resources/_vfs/nop/ooxml/templates/simple-data.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-ooxml\nop-ooxml-xlsx\src\main\resources\_vfs\nop\ooxml\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A61904-1C11-4E90-81C8-830089183E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CB690-6012-47B0-8193-09A610472C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,8 +86,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,30 +117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -153,20 +135,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,29 +471,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01038A2A-F670-441A-81C7-F20D861C61AD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
